--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23802"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23808"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profils\mcanouil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{775AE55B-B27B-41F4-9D73-339191CC82E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC2D70B-1E0F-43F8-822B-4FD85EAE9C66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="3" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
   <si>
     <t>position</t>
   </si>
@@ -103,32 +103,7 @@
     <t>Curriculum Vitæ</t>
   </si>
   <si>
-    <t>I'm currently student with an autistic trouble (asperger) in M.S. in Bioinformatics and Computational Biology at the University of Lille (France). I'm looking for an internship about (epi)genectics  diseases. I'd recently discovered my troubles, and I'm learning to work with its to be better.</t>
-  </si>
-  <si>
-    <t>Main Activities</t>
-  </si>
-  <si>
-    <t>Data Analysis</t>
-  </si>
-  <si>
-    <t>I've been analysing omics (SNP, CpG, expression, metabolites, etc.) data within numerous projects related to metabolic diseases, such as Type 2 Diabetes.  
-These projects involve collaborations with national and international consortia like CKDgen, CHARGE, IMIDIA, DIRECT or more recently RHAPSODY.  
-My contribution covers Genome-Wide Association Studies (GWAS), differential methylation/expression analyses, metabolomics analyses, rare variants analyses (clustering approach), disease progression modelling, genetic epidemiology and meta-analyses.</t>
-  </si>
-  <si>
-    <t>Team Management</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I've been managing a team of junior statisticians and interns . 
-My role is to provide guidance regarding choices of statistical methodologies for analysing the data and code optimisation for implementing these methodologies in large scale omics data. </t>
-  </si>
-  <si>
-    <t>Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My main research interests are mixed models, more recently extended to joint models.  
-Joint model, especially the joint likelihood approach implemented in the R package JM was studied in the context of Type 2 Diabetes incidence and fasting glucose progression (associated by diagnosis definition) using SNPs as biomarkers of interest. </t>
+    <t>I'm currently student, with an autistic trouble (asperger) and higher IQ, in M.S. in Bioinformatics and Computational Biology at the University of Lille (France). I'm looking for an internship about (epi)genectics  diseases. I'd recently discovered my troubles, and I'm learning to work with its to be better.</t>
   </si>
   <si>
     <t>what</t>
@@ -183,6 +158,9 @@
   </si>
   <si>
     <t>basic</t>
+  </si>
+  <si>
+    <t>Scilab</t>
   </si>
   <si>
     <t>Julia</t>
@@ -667,7 +645,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -755,16 +733,16 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -828,54 +806,24 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
       <c r="D3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="150">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
+    <row r="4" spans="1:4">
+      <c r="C4" s="1"/>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="60">
-      <c r="A5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
+    <row r="5" spans="1:4">
+      <c r="C5" s="1"/>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="90">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>25</v>
-      </c>
+    <row r="6" spans="1:4">
+      <c r="C6" s="1"/>
       <c r="D6">
         <v>0</v>
       </c>
@@ -887,10 +835,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -906,203 +854,217 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" t="s">
-        <v>34</v>
-      </c>
       <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
         <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
       <c r="F13" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="G13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1126,122 +1088,122 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
         <v>67</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>68</v>
       </c>
-      <c r="D6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" t="s">
-        <v>74</v>
-      </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1279,33 +1241,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1356,16 +1318,16 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1394,25 +1356,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" t="s">
         <v>83</v>
       </c>
-      <c r="E1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" t="s">
-        <v>89</v>
-      </c>
       <c r="G1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1426,7 +1388,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1439,7 +1401,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1448,13 +1410,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1487,16 +1449,16 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profils\mcanouil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC2D70B-1E0F-43F8-822B-4FD85EAE9C66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92F5FD12-E321-4CE0-A5B0-22AB2D18315B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
   <si>
     <t>position</t>
   </si>
@@ -118,9 +118,6 @@
     <t xml:space="preserve">C </t>
   </si>
   <si>
-    <t>Python</t>
-  </si>
-  <si>
     <t>Python (system, parallel computing, programming)</t>
   </si>
   <si>
@@ -167,6 +164,24 @@
   </si>
   <si>
     <t>Haskell</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>C1/C2 (native tongue)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English </t>
+  </si>
+  <si>
+    <t>B1/B2</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>A2/B1</t>
   </si>
   <si>
     <t>degree</t>
@@ -314,7 +329,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -329,6 +344,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -352,13 +374,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -733,16 +758,16 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -766,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -835,10 +860,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -882,7 +907,7 @@
         <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -890,13 +915,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -904,13 +929,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -918,153 +943,195 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
       <c r="F7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s">
         <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" t="s">
         <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" t="s">
-        <v>37</v>
-      </c>
       <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
         <v>36</v>
-      </c>
-      <c r="G14" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
         <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1088,122 +1155,122 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" t="s">
         <v>58</v>
       </c>
-      <c r="E4" t="s">
-        <v>53</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="45">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" t="s">
         <v>66</v>
       </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1241,33 +1308,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1318,16 +1385,16 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1356,25 +1423,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
         <v>13</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1401,7 +1468,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1410,13 +1477,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1449,16 +1516,16 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profils\mcanouil\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92F5FD12-E321-4CE0-A5B0-22AB2D18315B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{184CFA8F-C750-4BC8-A511-EC1B2A6A1832}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -47,12 +47,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
   <si>
     <t>position</t>
   </si>
   <si>
-    <t>institute</t>
+    <t>age</t>
   </si>
   <si>
     <t>city</t>
@@ -73,6 +73,9 @@
     <t>Student</t>
   </si>
   <si>
+    <t>28 years old</t>
+  </si>
+  <si>
     <t>Artres, France</t>
   </si>
   <si>
@@ -100,10 +103,7 @@
     <t>show</t>
   </si>
   <si>
-    <t>Curriculum Vitæ</t>
-  </si>
-  <si>
-    <t>I'm currently student, with an autistic trouble (asperger) and higher IQ, in M.S. in Bioinformatics and Computational Biology at the University of Lille (France). I'm looking for an internship about (epi)genectics  diseases. I'd recently discovered my troubles, and I'm learning to work with its to be better.</t>
+    <t>Looking for an internship on Bioinformatics or biological science computing in the medical field</t>
   </si>
   <si>
     <t>what</t>
@@ -261,7 +261,7 @@
   </si>
   <si>
     <t>Algorithms, complexity, databases
-After having been introduced to science computing research by Pr. Sylvain Salvati
+After having been introduced to science computing research by [Pr. Sylvain Salvati](sylvain.salvati@univ-lille.fr)
 And having achieved a research internship (70 hours) on "Solving Integro-Differential Equations and Neurobiology" with Dr. François Lemaire</t>
   </si>
   <si>
@@ -277,9 +277,30 @@
     <t>Expected graduation : Jul. 2021</t>
   </si>
   <si>
+    <t>institute</t>
+  </si>
+  <si>
     <t>activities</t>
   </si>
   <si>
+    <t>Volontary Tour Guide and Volontary Manager</t>
+  </si>
+  <si>
+    <t>["Club du Vieux Manoir"](https://www.clubduvieuxmanoir.fr/)</t>
+  </si>
+  <si>
+    <t>Chateau fort de Guise</t>
+  </si>
+  <si>
+    <t>Jul. 2008</t>
+  </si>
+  <si>
+    <t>Jul. 2017</t>
+  </si>
+  <si>
+    <t>Public reception, commented visits, mentoring young peope to restore historical monuments</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mathematics Teacher </t>
   </si>
   <si>
@@ -295,7 +316,25 @@
     <t>Aug. 2018</t>
   </si>
   <si>
-    <t>Management, teaching in secondary-school, collaboration</t>
+    <t>Management, teaching in secondary-school, collaboration, creation of informatics projects</t>
+  </si>
+  <si>
+    <t>Volunteer</t>
+  </si>
+  <si>
+    <t>["Institut Pasteur de Lille"](https://www.pasteur-lille.fr/accueil/)</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Jan. 2020</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>Public reception at the Institut Pasteur and/or its museum, group management, communication</t>
   </si>
   <si>
     <t>type</t>
@@ -670,7 +709,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -713,20 +752,23 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -755,19 +797,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -791,41 +833,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="88.42578125" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="67.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="75">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2">
         <v>1</v>
       </c>
@@ -862,8 +902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -876,7 +916,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>19</v>
@@ -1143,13 +1183,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="57.85546875" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
     <col min="6" max="6" width="142.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1173,7 +1214,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="27.75" customHeight="1">
       <c r="A2" t="s">
         <v>50</v>
       </c>
@@ -1285,13 +1326,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="117.42578125" bestFit="1" customWidth="1"/>
@@ -1302,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1314,37 +1357,68 @@
         <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="B7" s="1"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" s="1"/>
@@ -1359,6 +1433,9 @@
       <c r="B11" s="1"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F5">
+    <sortCondition descending="1" ref="D2:D5"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1382,19 +1459,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -1423,25 +1500,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1468,22 +1545,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
         <v>49</v>
       </c>
       <c r="F1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1513,19 +1590,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="E1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:5">
